--- a/test.xlsx
+++ b/test.xlsx
@@ -702,7 +702,7 @@
       <c r="C2" s="1" t="n"/>
       <c r="D2" s="1" t="n"/>
       <c r="E2" s="2" t="n">
-        <v>44375</v>
+        <v>44376</v>
       </c>
     </row>
     <row r="3">
@@ -713,11 +713,7 @@
       <c r="E3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>設計書</t>
-        </is>
-      </c>
+      <c r="A4" s="3" t="n"/>
       <c r="B4" s="4" t="n"/>
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="4" t="n"/>
@@ -781,55 +777,35 @@
     </row>
     <row customHeight="1" ht="19.5" r="13">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="11" t="inlineStr">
-        <is>
-          <t>モジュールID</t>
-        </is>
-      </c>
+      <c r="B13" s="11" t="n"/>
       <c r="C13" s="12" t="n"/>
       <c r="D13" s="13" t="n"/>
       <c r="E13" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="19.5" r="14">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="14" t="inlineStr">
-        <is>
-          <t>サブメニュー名</t>
-        </is>
-      </c>
+      <c r="B14" s="14" t="n"/>
       <c r="C14" s="15" t="n"/>
       <c r="D14" s="16" t="n"/>
       <c r="E14" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="19.5" r="15">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="14" t="inlineStr">
-        <is>
-          <t>コマンドID</t>
-        </is>
-      </c>
+      <c r="B15" s="14" t="n"/>
       <c r="C15" s="15" t="n"/>
       <c r="D15" s="16" t="n"/>
       <c r="E15" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="19.5" r="16">
       <c r="A16" s="1" t="n"/>
-      <c r="B16" s="14" t="inlineStr">
-        <is>
-          <t>コマンド名</t>
-        </is>
-      </c>
+      <c r="B16" s="14" t="n"/>
       <c r="C16" s="15" t="n"/>
       <c r="D16" s="16" t="n"/>
       <c r="E16" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="19.5" r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="17" t="inlineStr">
-        <is>
-          <t>プログラムID</t>
-        </is>
-      </c>
+      <c r="B17" s="17" t="n"/>
       <c r="C17" s="18" t="n"/>
       <c r="D17" s="19" t="n"/>
       <c r="E17" s="1" t="n"/>
@@ -850,21 +826,9 @@
     </row>
     <row customHeight="1" ht="19.5" r="20">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="20" t="inlineStr">
-        <is>
-          <t>バージョン</t>
-        </is>
-      </c>
-      <c r="C20" s="20" t="inlineStr">
-        <is>
-          <t>作成日</t>
-        </is>
-      </c>
-      <c r="D20" s="20" t="inlineStr">
-        <is>
-          <t>作成者</t>
-        </is>
-      </c>
+      <c r="B20" s="20" t="n"/>
+      <c r="C20" s="20" t="n"/>
+      <c r="D20" s="20" t="n"/>
       <c r="E20" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="19.5" r="21">

--- a/test.xlsx
+++ b/test.xlsx
@@ -702,7 +702,7 @@
       <c r="C2" s="1" t="n"/>
       <c r="D2" s="1" t="n"/>
       <c r="E2" s="2" t="n">
-        <v>44376</v>
+        <v>44377</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +713,11 @@
       <c r="E3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>設計書</t>
+        </is>
+      </c>
       <c r="B4" s="4" t="n"/>
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="4" t="n"/>
@@ -777,35 +781,55 @@
     </row>
     <row customHeight="1" ht="19.5" r="13">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="11" t="n"/>
+      <c r="B13" s="11" t="inlineStr">
+        <is>
+          <t>モジュールID</t>
+        </is>
+      </c>
       <c r="C13" s="12" t="n"/>
       <c r="D13" s="13" t="n"/>
       <c r="E13" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="19.5" r="14">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="14" t="n"/>
+      <c r="B14" s="14" t="inlineStr">
+        <is>
+          <t>サブメニュー名</t>
+        </is>
+      </c>
       <c r="C14" s="15" t="n"/>
       <c r="D14" s="16" t="n"/>
       <c r="E14" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="19.5" r="15">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="14" t="n"/>
+      <c r="B15" s="14" t="inlineStr">
+        <is>
+          <t>コマンドID</t>
+        </is>
+      </c>
       <c r="C15" s="15" t="n"/>
       <c r="D15" s="16" t="n"/>
       <c r="E15" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="19.5" r="16">
       <c r="A16" s="1" t="n"/>
-      <c r="B16" s="14" t="n"/>
+      <c r="B16" s="14" t="inlineStr">
+        <is>
+          <t>コマンド名</t>
+        </is>
+      </c>
       <c r="C16" s="15" t="n"/>
       <c r="D16" s="16" t="n"/>
       <c r="E16" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="19.5" r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="17" t="n"/>
+      <c r="B17" s="17" t="inlineStr">
+        <is>
+          <t>プログラムID</t>
+        </is>
+      </c>
       <c r="C17" s="18" t="n"/>
       <c r="D17" s="19" t="n"/>
       <c r="E17" s="1" t="n"/>
@@ -826,9 +850,21 @@
     </row>
     <row customHeight="1" ht="19.5" r="20">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="20" t="n"/>
-      <c r="C20" s="20" t="n"/>
-      <c r="D20" s="20" t="n"/>
+      <c r="B20" s="20" t="inlineStr">
+        <is>
+          <t>バージョン</t>
+        </is>
+      </c>
+      <c r="C20" s="20" t="inlineStr">
+        <is>
+          <t>作成日</t>
+        </is>
+      </c>
+      <c r="D20" s="20" t="inlineStr">
+        <is>
+          <t>作成者</t>
+        </is>
+      </c>
       <c r="E20" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="19.5" r="21">

--- a/test.xlsx
+++ b/test.xlsx
@@ -72,6 +72,7 @@
       <bottom style="thick">
         <color rgb="00000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -86,6 +87,7 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -100,6 +102,7 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -114,6 +117,7 @@
       <bottom style="thick">
         <color rgb="00000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -860,11 +864,7 @@
           <t>作成日</t>
         </is>
       </c>
-      <c r="D20" s="20" t="inlineStr">
-        <is>
-          <t>作成者</t>
-        </is>
-      </c>
+      <c r="D20" s="20" t="n"/>
       <c r="E20" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="19.5" r="21">

--- a/test.xlsx
+++ b/test.xlsx
@@ -51,7 +51,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -72,7 +72,6 @@
       <bottom style="thick">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -87,7 +86,6 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -102,7 +100,6 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -117,199 +114,30 @@
       <bottom style="thick">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="00000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="00000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="4" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="2" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A2:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,193 +514,109 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="21.38"/>
-    <col customWidth="1" max="2" min="2" width="21.38"/>
-    <col customWidth="1" max="3" min="3" width="21.38"/>
-    <col customWidth="1" max="4" min="4" width="21.38"/>
-    <col customWidth="1" max="5" min="5" width="21.38"/>
+    <col customWidth="1" max="1" min="1" width="22"/>
+    <col customWidth="1" max="2" min="2" width="22"/>
+    <col customWidth="1" max="3" min="3" width="22"/>
+    <col customWidth="1" max="4" min="4" width="22"/>
+    <col customWidth="1" max="5" min="5" width="22"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="1" t="n"/>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-    </row>
     <row r="2">
-      <c r="A2" s="1" t="n"/>
-      <c r="B2" s="1" t="n"/>
-      <c r="C2" s="1" t="n"/>
-      <c r="D2" s="1" t="n"/>
-      <c r="E2" s="2" t="n">
-        <v>44377</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="1" t="n"/>
-      <c r="E3" s="1" t="n"/>
+      <c r="E2" s="1" t="n">
+        <v>44378</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>設計書</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n"/>
-      <c r="C4" s="4" t="n"/>
-      <c r="D4" s="4" t="n"/>
-      <c r="E4" s="5" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="n"/>
-      <c r="E5" s="7" t="n"/>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="n"/>
-      <c r="B6" s="9" t="n"/>
-      <c r="C6" s="9" t="n"/>
-      <c r="D6" s="9" t="n"/>
-      <c r="E6" s="10" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="n"/>
-      <c r="D7" s="1" t="n"/>
-      <c r="E7" s="1" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n"/>
-      <c r="D8" s="1" t="n"/>
-      <c r="E8" s="1" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n"/>
-      <c r="D9" s="1" t="n"/>
-      <c r="E9" s="1" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
-      <c r="D10" s="1" t="n"/>
-      <c r="E10" s="1" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
-      <c r="D11" s="1" t="n"/>
-      <c r="E11" s="1" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n"/>
-      <c r="D12" s="1" t="n"/>
-      <c r="E12" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="19.5" r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="11" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="20" r="13">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>モジュールID</t>
         </is>
       </c>
-      <c r="C13" s="12" t="n"/>
-      <c r="D13" s="13" t="n"/>
-      <c r="E13" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="19.5" r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="14" t="inlineStr">
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="20" r="14">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>サブメニュー名</t>
         </is>
       </c>
-      <c r="C14" s="15" t="n"/>
-      <c r="D14" s="16" t="n"/>
-      <c r="E14" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="19.5" r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="14" t="inlineStr">
+      <c r="C14" s="7" t="n"/>
+      <c r="D14" s="7" t="n"/>
+    </row>
+    <row customHeight="1" ht="20" r="15">
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>コマンドID</t>
         </is>
       </c>
-      <c r="C15" s="15" t="n"/>
-      <c r="D15" s="16" t="n"/>
-      <c r="E15" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="19.5" r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="14" t="inlineStr">
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+    </row>
+    <row customHeight="1" ht="20" r="16">
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>コマンド名</t>
         </is>
       </c>
-      <c r="C16" s="15" t="n"/>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="19.5" r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="17" t="inlineStr">
+      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+    </row>
+    <row customHeight="1" ht="20" r="17">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>プログラムID</t>
         </is>
       </c>
-      <c r="C17" s="18" t="n"/>
-      <c r="D17" s="19" t="n"/>
-      <c r="E17" s="1" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="n"/>
-      <c r="D18" s="1" t="n"/>
-      <c r="E18" s="1" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
-      <c r="D19" s="1" t="n"/>
-      <c r="E19" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="19.5" r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="20" t="inlineStr">
+      <c r="C17" s="9" t="n"/>
+      <c r="D17" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="20" r="20">
+      <c r="B20" s="10" t="inlineStr">
         <is>
           <t>バージョン</t>
         </is>
       </c>
-      <c r="C20" s="20" t="inlineStr">
+      <c r="C20" s="10" t="inlineStr">
         <is>
           <t>作成日</t>
         </is>
       </c>
-      <c r="D20" s="20" t="n"/>
-      <c r="E20" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="19.5" r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="18" t="n"/>
-      <c r="C21" s="18" t="n"/>
-      <c r="D21" s="18" t="n"/>
-      <c r="E21" s="1" t="n"/>
+      <c r="D20" s="10" t="inlineStr">
+        <is>
+          <t>作成者</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="21">
+      <c r="B21" s="9" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/test.xlsx
+++ b/test.xlsx
@@ -51,7 +51,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,72 +73,24 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thick">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="00000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="4" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,7 +475,7 @@
   <sheetData>
     <row r="2">
       <c r="E2" s="1" t="n">
-        <v>44378</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="4">
@@ -557,66 +509,66 @@
           <t>モジュールID</t>
         </is>
       </c>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="20" r="14">
-      <c r="B14" s="6" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>サブメニュー名</t>
         </is>
       </c>
-      <c r="C14" s="7" t="n"/>
-      <c r="D14" s="7" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="20" r="15">
-      <c r="B15" s="6" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>コマンドID</t>
         </is>
       </c>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="20" r="16">
-      <c r="B16" s="6" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>コマンド名</t>
         </is>
       </c>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="20" r="17">
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>プログラムID</t>
         </is>
       </c>
-      <c r="C17" s="9" t="n"/>
-      <c r="D17" s="9" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="20" r="20">
-      <c r="B20" s="10" t="inlineStr">
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>バージョン</t>
         </is>
       </c>
-      <c r="C20" s="10" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>作成日</t>
         </is>
       </c>
-      <c r="D20" s="10" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t>作成者</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="20" r="21">
-      <c r="B21" s="9" t="n"/>
-      <c r="C21" s="9" t="n"/>
-      <c r="D21" s="9" t="n"/>
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/test.xlsx
+++ b/test.xlsx
@@ -72,12 +72,13 @@
       <bottom style="thick">
         <color rgb="00000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -85,9 +86,6 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -522,7 +520,7 @@
       <c r="D14" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="20" r="15">
-      <c r="B15" s="5" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>コマンドID</t>
         </is>
@@ -549,17 +547,17 @@
       <c r="D17" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="20" r="20">
-      <c r="B20" s="6" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>バージョン</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>作成日</t>
         </is>
       </c>
-      <c r="D20" s="6" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>作成者</t>
         </is>
